--- a/Wire Harness/ConnectorProfile.xlsx
+++ b/Wire Harness/ConnectorProfile.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
   <si>
     <t>Front Suspension Travel</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Deutsch</t>
   </si>
   <si>
-    <t>ASDD 612-41 SN/SA</t>
-  </si>
-  <si>
     <t>F 02U B00 240-01</t>
   </si>
   <si>
@@ -287,13 +284,28 @@
     <t xml:space="preserve">AMP 114-18063-076 </t>
   </si>
   <si>
-    <t>PLUG BOOT TERMIN'N TYPE 6</t>
-  </si>
-  <si>
     <t>Motor Coolant Pump</t>
   </si>
   <si>
     <t>Motor Ctrl Coolant Pump</t>
+  </si>
+  <si>
+    <t>AS 0 12-04 P B</t>
+  </si>
+  <si>
+    <t>AS 0 12-35 P G</t>
+  </si>
+  <si>
+    <t>CN-034</t>
+  </si>
+  <si>
+    <t>CN-035</t>
+  </si>
+  <si>
+    <t>ASDD 612-41 SN</t>
+  </si>
+  <si>
+    <t>ASDD 612-41 SA</t>
   </si>
 </sst>
 </file>
@@ -621,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +748,7 @@
       </c>
       <c r="E8" s="4"/>
       <c r="F8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -754,7 +766,7 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,26 +776,31 @@
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="4">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="E11" s="4">
-        <v>55</v>
-      </c>
-      <c r="F11" t="s">
-        <v>87</v>
+      <c r="E11" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,34 +808,33 @@
         <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D12" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -826,19 +842,16 @@
         <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E14" s="4">
-        <v>3</v>
-      </c>
-      <c r="F14" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -846,19 +859,19 @@
         <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E15" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -866,19 +879,19 @@
         <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1542761</v>
+        <v>12</v>
+      </c>
+      <c r="C16" t="s">
+        <v>72</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E16" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -886,19 +899,19 @@
         <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="3">
-        <v>1542761</v>
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E17" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,19 +919,19 @@
         <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>74</v>
+        <v>14</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1542761</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E18" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -926,19 +939,19 @@
         <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>74</v>
+        <v>15</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1542761</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E19" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -946,7 +959,7 @@
         <v>49</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>74</v>
@@ -958,7 +971,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,7 +979,7 @@
         <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>74</v>
@@ -978,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -986,19 +999,19 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E22" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1006,19 +1019,19 @@
         <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E23" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1026,7 +1039,7 @@
         <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>72</v>
@@ -1038,7 +1051,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1046,7 +1059,7 @@
         <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
@@ -1058,7 +1071,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1066,7 +1079,7 @@
         <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>72</v>
@@ -1078,7 +1091,7 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1086,7 +1099,7 @@
         <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1098,7 +1111,7 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1106,19 +1119,19 @@
         <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D28" t="s">
         <v>70</v>
       </c>
       <c r="E28" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1126,19 +1139,19 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D29" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1146,19 +1159,19 @@
         <v>59</v>
       </c>
       <c r="B30" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1166,56 +1179,96 @@
         <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="4">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E32" s="4"/>
+        <v>86</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="4">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D33" t="s">
-        <v>70</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2</v>
-      </c>
-      <c r="F33" t="s">
-        <v>77</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>63</v>
       </c>
       <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" s="4">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" t="s">
         <v>30</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C36" t="s">
         <v>69</v>
       </c>
-      <c r="D34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="4">
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" s="4">
         <v>2</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F36" t="s">
         <v>77</v>
       </c>
     </row>

--- a/Wire Harness/ConnectorProfile.xlsx
+++ b/Wire Harness/ConnectorProfile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black.624\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\black.624\Documents\Visio Wire Harness Bullshit\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="95">
   <si>
     <t>Front Suspension Travel</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Deutsch</t>
   </si>
   <si>
-    <t>F 02U B00 240-01</t>
-  </si>
-  <si>
     <t>Microfit 3.0 Receptable Housing, Dual Row, 4 Circuits, Halogen Free</t>
   </si>
   <si>
@@ -306,6 +303,12 @@
   </si>
   <si>
     <t>ASDD 612-41 SA</t>
+  </si>
+  <si>
+    <t>ASL 0-06-05SC-HE</t>
+  </si>
+  <si>
+    <t>ASL606-05SN</t>
   </si>
 </sst>
 </file>
@@ -635,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +725,15 @@
       <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -731,7 +742,15 @@
       <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -746,9 +765,11 @@
       <c r="D8" t="s">
         <v>70</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4">
+        <v>5</v>
+      </c>
       <c r="F8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,9 +785,11 @@
       <c r="D9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4">
+        <v>5</v>
+      </c>
       <c r="F9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -777,7 +800,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
         <v>79</v>
@@ -794,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>79</v>
@@ -828,7 +851,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" t="s">
         <v>79</v>
@@ -845,7 +868,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" t="s">
         <v>79</v>
@@ -862,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
         <v>75</v>
@@ -871,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -891,7 +914,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,7 +934,7 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -951,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -971,7 +994,7 @@
         <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,7 +1014,7 @@
         <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,7 +1114,7 @@
         <v>3</v>
       </c>
       <c r="F26" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1111,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1199,7 +1222,7 @@
         <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C32" t="s">
         <v>72</v>
@@ -1211,7 +1234,7 @@
         <v>3</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,7 +1242,7 @@
         <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E33" s="4"/>
     </row>
@@ -1234,7 +1257,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
         <v>29</v>
@@ -1254,7 +1277,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B36" t="s">
         <v>30</v>
